--- a/data/apple.xlsx
+++ b/data/apple.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="30">
   <si>
     <t>company</t>
   </si>
@@ -39,22 +39,73 @@
     <t>gross_margin</t>
   </si>
   <si>
-    <t>Q1 2011</t>
-  </si>
-  <si>
-    <t>Q2 2011</t>
-  </si>
-  <si>
-    <t>Q3 2011</t>
-  </si>
-  <si>
-    <t>Q4 2011</t>
-  </si>
-  <si>
-    <t>Q1 2012</t>
-  </si>
-  <si>
-    <t>Q2 2012</t>
+    <t>All</t>
+  </si>
+  <si>
+    <t>chart_type</t>
+  </si>
+  <si>
+    <t>11,26, 35, 44, 60</t>
+  </si>
+  <si>
+    <t>17,38, 59, 68, 80</t>
+  </si>
+  <si>
+    <t>21,35, 46, 54, 67</t>
+  </si>
+  <si>
+    <t>18, 39, 51, 71, 89</t>
+  </si>
+  <si>
+    <t>candlestick</t>
+  </si>
+  <si>
+    <t>Q1 2014</t>
+  </si>
+  <si>
+    <t>Q2 2014</t>
+  </si>
+  <si>
+    <t>Q3 2014</t>
+  </si>
+  <si>
+    <t>Q4 2014</t>
+  </si>
+  <si>
+    <t>15,20, 43, 57, 66</t>
+  </si>
+  <si>
+    <t>10,28, 46, 68, 79</t>
+  </si>
+  <si>
+    <t>23,37, 46, 54, 73</t>
+  </si>
+  <si>
+    <t>11, 39, 53, 64, 90</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
 </sst>
 </file>
@@ -396,164 +447,681 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1">
         <v>89.2</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>180.2</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>90.4</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>193.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1">
+        <v>89.2</v>
+      </c>
+      <c r="K3" s="1">
+        <v>180.2</v>
+      </c>
+      <c r="L3" s="1">
+        <v>90.4</v>
+      </c>
+      <c r="M3" s="1">
+        <v>193.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
         <v>132</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>140</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>110</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>183</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="1">
+        <v>132</v>
+      </c>
+      <c r="K4" s="1">
+        <v>140</v>
+      </c>
+      <c r="L4" s="1">
+        <v>110</v>
+      </c>
+      <c r="M4" s="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1">
+        <v>169.6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>130</v>
+      </c>
+      <c r="F5" s="1">
+        <v>145</v>
+      </c>
+      <c r="G5" s="1">
+        <v>137</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="1">
+        <v>169.6</v>
+      </c>
+      <c r="K5" s="1">
+        <v>130</v>
+      </c>
+      <c r="L5" s="1">
+        <v>145</v>
+      </c>
+      <c r="M5" s="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1">
+        <v>230.4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>140.6</v>
+      </c>
+      <c r="F6" s="1">
+        <v>128.6</v>
+      </c>
+      <c r="G6" s="1">
+        <v>162.6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="1">
+        <v>230.4</v>
+      </c>
+      <c r="K6" s="1">
+        <v>140.6</v>
+      </c>
+      <c r="L6" s="1">
+        <v>128.6</v>
+      </c>
+      <c r="M6" s="1">
+        <v>162.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1">
-        <v>169.6</v>
-      </c>
-      <c r="D5" s="1">
-        <v>130</v>
-      </c>
-      <c r="E5" s="1">
-        <v>145</v>
-      </c>
-      <c r="F5" s="1">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1">
+        <v>45</v>
+      </c>
+      <c r="E11" s="1">
+        <v>35</v>
+      </c>
+      <c r="F11" s="1">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="1">
+        <v>45</v>
+      </c>
+      <c r="K11" s="1">
+        <v>35</v>
+      </c>
+      <c r="L11" s="1">
+        <v>10</v>
+      </c>
+      <c r="M11" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1">
         <v>230.4</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E12" s="1">
         <v>140.6</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F12" s="1">
         <v>128.6</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G12" s="1">
         <v>162.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="H12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="1">
+        <v>230.4</v>
+      </c>
+      <c r="K12" s="1">
+        <v>140.6</v>
+      </c>
+      <c r="L12" s="1">
+        <v>128.6</v>
+      </c>
+      <c r="M12" s="1">
+        <v>162.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1">
-        <v>104.4</v>
-      </c>
-      <c r="D7" s="1">
-        <v>197.4</v>
-      </c>
-      <c r="E7" s="1">
-        <v>188.4</v>
-      </c>
-      <c r="F7" s="1">
-        <v>171.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="E13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1">
-        <v>83.5</v>
-      </c>
-      <c r="D8" s="1">
-        <v>180.4</v>
-      </c>
-      <c r="E8" s="1">
-        <v>200.4</v>
-      </c>
-      <c r="F8" s="1">
-        <v>182.4</v>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="1">
+        <v>45</v>
+      </c>
+      <c r="E17" s="1">
+        <v>35</v>
+      </c>
+      <c r="F17" s="1">
+        <v>10</v>
+      </c>
+      <c r="G17" s="1">
+        <v>25</v>
+      </c>
+      <c r="H17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="1">
+        <v>45</v>
+      </c>
+      <c r="K17" s="1">
+        <v>35</v>
+      </c>
+      <c r="L17" s="1">
+        <v>10</v>
+      </c>
+      <c r="M17" s="1">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
